--- a/data/trans_bre/P1423-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.351270719387813</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.806487398314187</v>
+        <v>3.806487398314188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.248178411570955</v>
@@ -649,7 +649,7 @@
         <v>0.9194144079374529</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8829992592358834</v>
+        <v>0.8829992592358837</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3228129253747702</v>
+        <v>0.0672397408424463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.034256179911665</v>
+        <v>-0.8329194317289574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2320517168342829</v>
+        <v>-0.3713258999654954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8196989057357763</v>
+        <v>1.21630763879972</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02514787690559998</v>
+        <v>-0.03315824989338892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3442817098134321</v>
+        <v>-0.2900112795860209</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1745260786526934</v>
+        <v>-0.1853402489954067</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.110546158160197</v>
+        <v>0.1676923200516569</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.14021740231467</v>
+        <v>5.719023961512083</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.056813654275231</v>
+        <v>5.590380251540082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.779581461037905</v>
+        <v>5.497342032132456</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.466551809692975</v>
+        <v>6.897633323849616</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.304891021883583</v>
+        <v>4.385262387479222</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.760145261751908</v>
+        <v>3.102855122689979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.172046230437562</v>
+        <v>3.419891670377101</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.09795631045852</v>
+        <v>2.275071690557767</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.059197668335262</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.037580549301468</v>
+        <v>4.03758054930147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.706011235237406</v>
@@ -749,7 +749,7 @@
         <v>0.9138693978063938</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.685866269267859</v>
+        <v>0.6858662692678594</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.342110889426305</v>
+        <v>0.9284066877636875</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6020989977703769</v>
+        <v>-0.6285995972370042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3645577444268991</v>
+        <v>-0.4336657037260733</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4332387813838417</v>
+        <v>0.6692794478456751</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2469739591780093</v>
+        <v>0.1638654812661876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1827515210324443</v>
+        <v>-0.1745034236618425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2091144248052217</v>
+        <v>-0.240674005092602</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05836185179975857</v>
+        <v>0.07411352538108976</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.052005916648037</v>
+        <v>6.748215403830661</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.858349702343787</v>
+        <v>5.703211279842909</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.292533900614297</v>
+        <v>4.857851630606587</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.253208077575753</v>
+        <v>7.488650831619369</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.145557880754382</v>
+        <v>5.559939105106361</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.111029919822767</v>
+        <v>3.019660213969036</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.864118238991824</v>
+        <v>3.774903086951005</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.65918113410973</v>
+        <v>1.664764617347387</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.59431199147734</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.830137270714272</v>
+        <v>5.830137270714274</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.85267406690607</v>
@@ -849,7 +849,7 @@
         <v>2.387954278164913</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8022700548822419</v>
+        <v>0.8022700548822422</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.065643349836938</v>
+        <v>2.204806440622143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.456001126793779</v>
+        <v>3.417605592761603</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.903954078803558</v>
+        <v>4.792337474067724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.582872746409241</v>
+        <v>1.471853389238631</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4091583294680521</v>
+        <v>0.3598155421121885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4155519444388083</v>
+        <v>0.4137758412472408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7254225995408277</v>
+        <v>0.9023769386931049</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1727858992106652</v>
+        <v>0.1447706486299651</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.84419339225883</v>
+        <v>13.45380261398783</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.2727075476205</v>
+        <v>13.04033162690506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.29463239178557</v>
+        <v>16.79837880093949</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.16967442651906</v>
+        <v>10.18937739099066</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.603714072992954</v>
+        <v>5.038801992420312</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.377203087093652</v>
+        <v>2.476711401605734</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.029853056495293</v>
+        <v>5.287771265041987</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.765460773421746</v>
+        <v>1.742644340201639</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.669090945846551</v>
+        <v>2.719634624786588</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.514289137597746</v>
+        <v>3.378175727466994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.008671494994471</v>
+        <v>3.044372050728127</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.328329240613707</v>
+        <v>3.135954651104607</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6708486284463008</v>
+        <v>0.6910135370093404</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5933785357746229</v>
+        <v>0.5794499904094916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.713811134555167</v>
+        <v>0.6605674540115248</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.488661909495874</v>
+        <v>0.4550320907362273</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.187190297455771</v>
+        <v>7.308015703793528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.935418484604568</v>
+        <v>9.007299095143523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.483679040460663</v>
+        <v>7.598499235006857</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.98851643531907</v>
+        <v>7.737782000105739</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.783648522945951</v>
+        <v>2.786485142705068</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.281049978353423</v>
+        <v>2.287709044815341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.758291939672487</v>
+        <v>2.669880893886474</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.599476046473557</v>
+        <v>1.54246257725235</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>10.90473238456598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.904333775085323</v>
+        <v>9.904333775085325</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9720692283436317</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.064514941438349</v>
+        <v>1.198341011493171</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.476859304037855</v>
+        <v>8.451985601183617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.819454357927971</v>
+        <v>7.818042000757698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.109050022285722</v>
+        <v>6.757086118795365</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1172688853337264</v>
+        <v>0.1671405763519999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.750678900388499</v>
+        <v>1.730632561333812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.36074016967009</v>
+        <v>1.366899829155692</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.8049114808603625</v>
+        <v>0.7782251922633839</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.840933291294864</v>
+        <v>7.68736858867524</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.88564868960664</v>
+        <v>14.60327490558823</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.08024066552352</v>
+        <v>14.08236366963852</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.160751604229</v>
+        <v>12.54664739173743</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.50234911507351</v>
+        <v>2.500123606361944</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7.054392677493619</v>
+        <v>7.024031979883569</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.53680374063807</v>
+        <v>4.780038415590443</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.636480616892228</v>
+        <v>2.442433138067305</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>9.965018059878112</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.795202589733736</v>
+        <v>5.795202589733739</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.993089617360324</v>
@@ -1149,7 +1149,7 @@
         <v>7.11578103314688</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.9051142173383219</v>
+        <v>0.9051142173383223</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.242709777198277</v>
+        <v>2.271157156782998</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.453246203693761</v>
+        <v>9.34685020652485</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.378512819323488</v>
+        <v>7.213288261188391</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1536325214279474</v>
+        <v>-0.1198037420380986</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.445468400833524</v>
+        <v>0.4684720341862529</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>4.321069102851816</v>
+        <v>4.232940759589472</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.399218485284101</v>
+        <v>1.95215979998195</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05743144822769448</v>
+        <v>-0.03586011833845464</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.915338791881556</v>
+        <v>6.929319230237343</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.79579484051699</v>
+        <v>13.80438203637516</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.38314972608658</v>
+        <v>12.31841632580489</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.670513253343008</v>
+        <v>9.665042330362434</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.803563436690411</v>
+        <v>6.247857379950069</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>28.56931916791573</v>
+        <v>31.4407562052476</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.85233711412357</v>
+        <v>2.89429162223348</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1235,7 @@
         <v>6.961778404627291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.268053659169151</v>
+        <v>6.268053659169154</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1.445085539324166</v>
@@ -1247,7 +1247,7 @@
         <v>2.131747375175312</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.035004693544459</v>
+        <v>1.03500469354446</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.412811585083801</v>
+        <v>3.382674936526779</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.062986884924721</v>
+        <v>5.94154143300189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.765855530070779</v>
+        <v>5.756744887752438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.130558685497491</v>
+        <v>4.981965262680026</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9973758539785255</v>
+        <v>0.9429747004215941</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.306012000606964</v>
+        <v>1.276103031562372</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.460394869818748</v>
+        <v>1.515364136319584</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.7460421521217125</v>
+        <v>0.7123491185259404</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.54675350203206</v>
+        <v>5.590435639591129</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.684836929463946</v>
+        <v>8.568122377703496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.300456122240107</v>
+        <v>8.199681837986974</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.565155736433743</v>
+        <v>7.586364202604061</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.121651672757952</v>
+        <v>2.095077977728823</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.490300231884562</v>
+        <v>2.40124023176521</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.862618868288848</v>
+        <v>2.907477353920222</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.380369147038384</v>
+        <v>1.393846923488738</v>
       </c>
     </row>
     <row r="25">
